--- a/app/src/main/assets/horario_estudiante.xlsx
+++ b/app/src/main/assets/horario_estudiante.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\AndroidStudioProjects\ProyectoFinal_RegistroControl_JAAS\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A3C89B-C40E-42E4-8CA3-70C395976BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDBEE13-4539-4615-B8BB-30259A31FDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,16 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
-  <si>
-    <t>08:00 - 09:00</t>
-  </si>
-  <si>
-    <t>09:00 - 10:0</t>
-  </si>
-  <si>
-    <t>10:00 - 11:00</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Materia 1</t>
   </si>
@@ -55,6 +46,33 @@
   </si>
   <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>Dia/Hora</t>
+  </si>
+  <si>
+    <t>Lunes</t>
+  </si>
+  <si>
+    <t>Martes</t>
+  </si>
+  <si>
+    <t>Miercoles</t>
+  </si>
+  <si>
+    <t>Jueves</t>
+  </si>
+  <si>
+    <t>Viernes</t>
+  </si>
+  <si>
+    <t>08:00-09:00</t>
+  </si>
+  <si>
+    <t>09:00-10:00</t>
+  </si>
+  <si>
+    <t>10:00-11:00</t>
   </si>
 </sst>
 </file>
@@ -378,63 +396,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34223B3-CB4D-4478-A4C6-361717023791}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
